--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H2">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I2">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J2">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.48725504747486</v>
+        <v>51.23401333333334</v>
       </c>
       <c r="N2">
-        <v>3.48725504747486</v>
+        <v>153.70204</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="Q2">
-        <v>5.024559432597974</v>
+        <v>161.4706534417334</v>
       </c>
       <c r="R2">
-        <v>5.024559432597974</v>
+        <v>1453.2358809756</v>
       </c>
       <c r="S2">
-        <v>0.0002893000800039257</v>
+        <v>0.000609510459426563</v>
       </c>
       <c r="T2">
-        <v>0.0002893000800039257</v>
+        <v>0.000609510459426563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4950.09967254897</v>
+        <v>3.15163</v>
       </c>
       <c r="H3">
-        <v>4950.09967254897</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I3">
-        <v>0.9939126575944206</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J3">
-        <v>0.9939126575944206</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.48725504747486</v>
+        <v>1.648742666666666</v>
       </c>
       <c r="N3">
-        <v>3.48725504747486</v>
+        <v>4.946228</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03117732114163389</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03117732114163389</v>
       </c>
       <c r="Q3">
-        <v>17262.26006860005</v>
+        <v>5.196226850546666</v>
       </c>
       <c r="R3">
-        <v>17262.26006860005</v>
+        <v>46.76604165492</v>
       </c>
       <c r="S3">
-        <v>0.9939126575944206</v>
+        <v>1.961442867452202E-05</v>
       </c>
       <c r="T3">
-        <v>0.9939126575944206</v>
+        <v>1.961442867452202E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.8766695925988</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H4">
-        <v>28.8766695925988</v>
+        <v>14915.263184</v>
       </c>
       <c r="I4">
-        <v>0.005798042325575402</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J4">
-        <v>0.005798042325575402</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.48725504747486</v>
+        <v>51.23401333333334</v>
       </c>
       <c r="N4">
-        <v>3.48725504747486</v>
+        <v>153.70204</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="Q4">
-        <v>100.700311791054</v>
+        <v>254722.9309464106</v>
       </c>
       <c r="R4">
-        <v>100.700311791054</v>
+        <v>2292506.378517695</v>
       </c>
       <c r="S4">
-        <v>0.005798042325575402</v>
+        <v>0.9615139801465635</v>
       </c>
       <c r="T4">
-        <v>0.005798042325575402</v>
+        <v>0.9615139801465634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4971.754394666666</v>
+      </c>
+      <c r="H5">
+        <v>14915.263184</v>
+      </c>
+      <c r="I5">
+        <v>0.9924561027819714</v>
+      </c>
+      <c r="J5">
+        <v>0.9924561027819713</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N5">
+        <v>4.946228</v>
+      </c>
+      <c r="O5">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P5">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q5">
+        <v>8197.143598674438</v>
+      </c>
+      <c r="R5">
+        <v>73774.29238806994</v>
+      </c>
+      <c r="S5">
+        <v>0.03094212263540793</v>
+      </c>
+      <c r="T5">
+        <v>0.03094212263540793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>34.63986933333333</v>
+      </c>
+      <c r="H6">
+        <v>103.919608</v>
+      </c>
+      <c r="I6">
+        <v>0.006914772329927541</v>
+      </c>
+      <c r="J6">
+        <v>0.006914772329927542</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>51.23401333333334</v>
+      </c>
+      <c r="N6">
+        <v>153.70204</v>
+      </c>
+      <c r="O6">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="P6">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="Q6">
+        <v>1774.739527288924</v>
+      </c>
+      <c r="R6">
+        <v>15972.65574560032</v>
+      </c>
+      <c r="S6">
+        <v>0.006699188252376107</v>
+      </c>
+      <c r="T6">
+        <v>0.006699188252376108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>34.63986933333333</v>
+      </c>
+      <c r="H7">
+        <v>103.919608</v>
+      </c>
+      <c r="I7">
+        <v>0.006914772329927541</v>
+      </c>
+      <c r="J7">
+        <v>0.006914772329927542</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N7">
+        <v>4.946228</v>
+      </c>
+      <c r="O7">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P7">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q7">
+        <v>57.11223053762487</v>
+      </c>
+      <c r="R7">
+        <v>514.010074838624</v>
+      </c>
+      <c r="S7">
+        <v>0.000215584077551435</v>
+      </c>
+      <c r="T7">
+        <v>0.000215584077551435</v>
       </c>
     </row>
   </sheetData>
